--- a/ePICreator/data/Pentasa.xlsx
+++ b/ePICreator/data/Pentasa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021E049-8D5C-4243-808B-3A7C113567B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC61395-C53F-3A4E-A141-A2FD958E3C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" firstSheet="1" activeTab="10" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
